--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lapBkp\projects\mosip\test9\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949EFC3-D1E1-42C2-A61D-DA59514D67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C8DE3-B574-4965-830D-6A973C9F6676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="119">
   <si>
     <t>lang_code</t>
   </si>
@@ -465,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,19 +761,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.453125" style="1"/>
-    <col min="5" max="5" width="8.54296875" style="1"/>
+    <col min="2" max="2" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1206,33 +1206,33 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1240,16 +1240,16 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1257,16 +1257,16 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1274,33 +1274,33 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1308,16 +1308,16 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1325,33 +1325,33 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1359,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1376,16 +1376,16 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1393,16 +1393,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1410,33 +1410,33 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1444,16 +1444,16 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1461,16 +1461,16 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1478,33 +1478,33 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1512,16 +1512,16 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1529,16 +1529,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1546,16 +1546,16 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1563,33 +1563,33 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1614,16 +1614,16 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1631,33 +1631,33 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1665,16 +1665,16 @@
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1699,16 +1699,16 @@
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1716,33 +1716,33 @@
         <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1750,16 +1750,16 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1767,16 +1767,16 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1784,33 +1784,33 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1818,16 +1818,16 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1835,16 +1835,16 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1852,16 +1852,16 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1869,33 +1869,33 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1903,16 +1903,16 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1920,33 +1920,33 @@
         <v>32</v>
       </c>
       <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
         <v>24</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1954,16 +1954,16 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -1971,16 +1971,16 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1988,33 +1988,33 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2022,16 +2022,16 @@
         <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2039,33 +2039,33 @@
         <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2073,16 +2073,16 @@
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -2090,16 +2090,16 @@
         <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2107,33 +2107,33 @@
         <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -2141,16 +2141,16 @@
         <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -2158,33 +2158,33 @@
         <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -2192,16 +2192,16 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2209,16 +2209,16 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2226,33 +2226,33 @@
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -2260,16 +2260,16 @@
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -2277,33 +2277,33 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2311,16 +2311,16 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -2328,16 +2328,16 @@
         <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -2345,33 +2345,33 @@
         <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -2379,16 +2379,16 @@
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -2396,33 +2396,33 @@
         <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2430,16 +2430,16 @@
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2447,16 +2447,16 @@
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -2464,16 +2464,16 @@
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -2481,33 +2481,33 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2515,16 +2515,16 @@
         <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -2532,16 +2532,16 @@
         <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -2549,33 +2549,33 @@
         <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>33</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -2583,16 +2583,16 @@
         <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -2600,16 +2600,16 @@
         <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -2617,16 +2617,16 @@
         <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -2634,33 +2634,33 @@
         <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -2668,16 +2668,16 @@
         <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2685,16 +2685,16 @@
         <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -2702,33 +2702,33 @@
         <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -2736,16 +2736,16 @@
         <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -2753,16 +2753,16 @@
         <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -2770,16 +2770,16 @@
         <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -2787,33 +2787,33 @@
         <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -2821,16 +2821,16 @@
         <v>47</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -2838,16 +2838,16 @@
         <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -2855,33 +2855,33 @@
         <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -2889,16 +2889,16 @@
         <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -2906,16 +2906,16 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -2923,16 +2923,16 @@
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -2940,33 +2940,33 @@
         <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -2974,16 +2974,16 @@
         <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -2991,33 +2991,33 @@
         <v>49</v>
       </c>
       <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" t="s">
         <v>24</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>25</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
       <c r="E132" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -3025,16 +3025,16 @@
         <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -3042,16 +3042,16 @@
         <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -3059,33 +3059,33 @@
         <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>50</v>
       </c>
@@ -3093,16 +3093,16 @@
         <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -3110,33 +3110,33 @@
         <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>50</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -3144,16 +3144,16 @@
         <v>53</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>50</v>
       </c>
@@ -3161,16 +3161,16 @@
         <v>53</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -3178,33 +3178,33 @@
         <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -3212,16 +3212,16 @@
         <v>54</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -3229,33 +3229,33 @@
         <v>54</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>50</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -3263,16 +3263,16 @@
         <v>55</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>50</v>
       </c>
@@ -3280,16 +3280,16 @@
         <v>55</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>50</v>
       </c>
@@ -3297,33 +3297,33 @@
         <v>55</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>50</v>
       </c>
@@ -3331,16 +3331,16 @@
         <v>56</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>50</v>
       </c>
@@ -3348,33 +3348,33 @@
         <v>56</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>50</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>50</v>
       </c>
@@ -3382,16 +3382,16 @@
         <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>50</v>
       </c>
@@ -3399,16 +3399,16 @@
         <v>57</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>50</v>
       </c>
@@ -3416,33 +3416,33 @@
         <v>57</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>50</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>50</v>
       </c>
@@ -3450,16 +3450,16 @@
         <v>58</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>50</v>
       </c>
@@ -3467,33 +3467,33 @@
         <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>50</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>50</v>
       </c>
@@ -3501,16 +3501,16 @@
         <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>50</v>
       </c>
@@ -3518,16 +3518,16 @@
         <v>59</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -3535,16 +3535,16 @@
         <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -3552,33 +3552,33 @@
         <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>50</v>
       </c>
@@ -3586,16 +3586,16 @@
         <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>50</v>
       </c>
@@ -3603,16 +3603,16 @@
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>50</v>
       </c>
@@ -3620,33 +3620,33 @@
         <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>50</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -3654,16 +3654,16 @@
         <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -3671,16 +3671,16 @@
         <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>50</v>
       </c>
@@ -3688,16 +3688,16 @@
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>50</v>
       </c>
@@ -3705,33 +3705,33 @@
         <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>50</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -3739,16 +3739,16 @@
         <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>50</v>
       </c>
@@ -3756,16 +3756,16 @@
         <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>50</v>
       </c>
@@ -3773,33 +3773,33 @@
         <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>50</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>50</v>
       </c>
@@ -3807,16 +3807,16 @@
         <v>63</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>50</v>
       </c>
@@ -3824,16 +3824,16 @@
         <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>50</v>
       </c>
@@ -3841,16 +3841,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>50</v>
       </c>
@@ -3858,33 +3858,33 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>50</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>50</v>
       </c>
@@ -3892,16 +3892,16 @@
         <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>50</v>
       </c>
@@ -3909,16 +3909,16 @@
         <v>64</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>50</v>
       </c>
@@ -3926,33 +3926,33 @@
         <v>64</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>50</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>50</v>
       </c>
@@ -3960,16 +3960,16 @@
         <v>65</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -3977,16 +3977,16 @@
         <v>65</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>50</v>
       </c>
@@ -3994,16 +3994,16 @@
         <v>65</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>50</v>
       </c>
@@ -4011,33 +4011,33 @@
         <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>50</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -4045,16 +4045,16 @@
         <v>66</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>50</v>
       </c>
@@ -4062,33 +4062,33 @@
         <v>66</v>
       </c>
       <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
         <v>24</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>25</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>67</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" t="s">
-        <v>8</v>
-      </c>
       <c r="E195" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>67</v>
       </c>
@@ -4096,16 +4096,16 @@
         <v>68</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -4113,16 +4113,16 @@
         <v>68</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>67</v>
       </c>
@@ -4130,33 +4130,33 @@
         <v>68</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>67</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>67</v>
       </c>
@@ -4164,16 +4164,16 @@
         <v>69</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>67</v>
       </c>
@@ -4181,33 +4181,33 @@
         <v>69</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>67</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>67</v>
       </c>
@@ -4215,16 +4215,16 @@
         <v>70</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>67</v>
       </c>
@@ -4232,16 +4232,16 @@
         <v>70</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>67</v>
       </c>
@@ -4249,33 +4249,33 @@
         <v>70</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>67</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>67</v>
       </c>
@@ -4283,16 +4283,16 @@
         <v>71</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>67</v>
       </c>
@@ -4300,33 +4300,33 @@
         <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>67</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>67</v>
       </c>
@@ -4334,16 +4334,16 @@
         <v>72</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>67</v>
       </c>
@@ -4351,16 +4351,16 @@
         <v>72</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>67</v>
       </c>
@@ -4368,33 +4368,33 @@
         <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>67</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>67</v>
       </c>
@@ -4402,16 +4402,16 @@
         <v>73</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>67</v>
       </c>
@@ -4419,33 +4419,33 @@
         <v>73</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>67</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>67</v>
       </c>
@@ -4453,16 +4453,16 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>67</v>
       </c>
@@ -4470,16 +4470,16 @@
         <v>74</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>67</v>
       </c>
@@ -4487,33 +4487,33 @@
         <v>74</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>67</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>67</v>
       </c>
@@ -4521,16 +4521,16 @@
         <v>75</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>67</v>
       </c>
@@ -4538,33 +4538,33 @@
         <v>75</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>67</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>67</v>
       </c>
@@ -4572,16 +4572,16 @@
         <v>76</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>67</v>
       </c>
@@ -4589,16 +4589,16 @@
         <v>76</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>67</v>
       </c>
@@ -4606,16 +4606,16 @@
         <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>67</v>
       </c>
@@ -4623,33 +4623,33 @@
         <v>76</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>67</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>67</v>
       </c>
@@ -4657,16 +4657,16 @@
         <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>67</v>
       </c>
@@ -4674,16 +4674,16 @@
         <v>77</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>67</v>
       </c>
@@ -4691,33 +4691,33 @@
         <v>77</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>67</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>67</v>
       </c>
@@ -4725,16 +4725,16 @@
         <v>78</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>67</v>
       </c>
@@ -4742,16 +4742,16 @@
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>67</v>
       </c>
@@ -4759,16 +4759,16 @@
         <v>78</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>67</v>
       </c>
@@ -4776,33 +4776,33 @@
         <v>78</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>67</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>67</v>
       </c>
@@ -4810,16 +4810,16 @@
         <v>79</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>67</v>
       </c>
@@ -4827,16 +4827,16 @@
         <v>79</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>67</v>
       </c>
@@ -4844,33 +4844,33 @@
         <v>79</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>67</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>67</v>
       </c>
@@ -4878,16 +4878,16 @@
         <v>80</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>67</v>
       </c>
@@ -4895,16 +4895,16 @@
         <v>80</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>67</v>
       </c>
@@ -4912,16 +4912,16 @@
         <v>80</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>67</v>
       </c>
@@ -4929,33 +4929,33 @@
         <v>80</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>67</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>67</v>
       </c>
@@ -4963,16 +4963,16 @@
         <v>81</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>67</v>
       </c>
@@ -4980,16 +4980,16 @@
         <v>81</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>67</v>
       </c>
@@ -4997,33 +4997,33 @@
         <v>81</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>67</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>67</v>
       </c>
@@ -5031,16 +5031,16 @@
         <v>82</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>67</v>
       </c>
@@ -5048,16 +5048,16 @@
         <v>82</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>67</v>
       </c>
@@ -5065,16 +5065,16 @@
         <v>82</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>67</v>
       </c>
@@ -5082,33 +5082,33 @@
         <v>82</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>67</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>67</v>
       </c>
@@ -5116,16 +5116,16 @@
         <v>83</v>
       </c>
       <c r="C256" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>67</v>
       </c>
@@ -5133,33 +5133,33 @@
         <v>83</v>
       </c>
       <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258" t="s">
         <v>24</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>25</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>84</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C258" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258" t="s">
-        <v>8</v>
-      </c>
       <c r="E258" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>84</v>
       </c>
@@ -5167,16 +5167,16 @@
         <v>85</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -5184,16 +5184,16 @@
         <v>85</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>84</v>
       </c>
@@ -5201,33 +5201,33 @@
         <v>85</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>84</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D262" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>84</v>
       </c>
@@ -5235,16 +5235,16 @@
         <v>86</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>84</v>
       </c>
@@ -5252,33 +5252,33 @@
         <v>86</v>
       </c>
       <c r="C264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>84</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -5286,16 +5286,16 @@
         <v>87</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>84</v>
       </c>
@@ -5303,16 +5303,16 @@
         <v>87</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>84</v>
       </c>
@@ -5320,33 +5320,33 @@
         <v>87</v>
       </c>
       <c r="C268" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>84</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>84</v>
       </c>
@@ -5354,16 +5354,16 @@
         <v>88</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -5371,33 +5371,33 @@
         <v>88</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>84</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>84</v>
       </c>
@@ -5405,16 +5405,16 @@
         <v>89</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>84</v>
       </c>
@@ -5422,16 +5422,16 @@
         <v>89</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>84</v>
       </c>
@@ -5439,33 +5439,33 @@
         <v>89</v>
       </c>
       <c r="C275" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D275" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>84</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>84</v>
       </c>
@@ -5473,16 +5473,16 @@
         <v>90</v>
       </c>
       <c r="C277" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>84</v>
       </c>
@@ -5490,33 +5490,33 @@
         <v>90</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D279" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -5524,16 +5524,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>84</v>
       </c>
@@ -5541,16 +5541,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
@@ -5558,33 +5558,33 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>84</v>
       </c>
@@ -5592,16 +5592,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>84</v>
       </c>
@@ -5609,33 +5609,33 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>84</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>84</v>
       </c>
@@ -5643,16 +5643,16 @@
         <v>93</v>
       </c>
       <c r="C287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -5660,16 +5660,16 @@
         <v>93</v>
       </c>
       <c r="C288" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -5677,16 +5677,16 @@
         <v>93</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>84</v>
       </c>
@@ -5694,33 +5694,33 @@
         <v>93</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>84</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C291" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>84</v>
       </c>
@@ -5728,16 +5728,16 @@
         <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>84</v>
       </c>
@@ -5745,16 +5745,16 @@
         <v>94</v>
       </c>
       <c r="C293" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>84</v>
       </c>
@@ -5762,33 +5762,33 @@
         <v>94</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>84</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>84</v>
       </c>
@@ -5796,16 +5796,16 @@
         <v>95</v>
       </c>
       <c r="C296" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>84</v>
       </c>
@@ -5813,16 +5813,16 @@
         <v>95</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>84</v>
       </c>
@@ -5830,16 +5830,16 @@
         <v>95</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -5847,33 +5847,33 @@
         <v>95</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D299" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>84</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D300" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>84</v>
       </c>
@@ -5881,16 +5881,16 @@
         <v>96</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D301" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>84</v>
       </c>
@@ -5898,16 +5898,16 @@
         <v>96</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D302" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>84</v>
       </c>
@@ -5915,33 +5915,33 @@
         <v>96</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>84</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>84</v>
       </c>
@@ -5949,16 +5949,16 @@
         <v>97</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D305" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -5966,16 +5966,16 @@
         <v>97</v>
       </c>
       <c r="C306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>84</v>
       </c>
@@ -5983,16 +5983,16 @@
         <v>97</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>84</v>
       </c>
@@ -6000,33 +6000,33 @@
         <v>97</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>84</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>84</v>
       </c>
@@ -6034,16 +6034,16 @@
         <v>98</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>84</v>
       </c>
@@ -6051,16 +6051,16 @@
         <v>98</v>
       </c>
       <c r="C311" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>84</v>
       </c>
@@ -6068,33 +6068,33 @@
         <v>98</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>84</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -6102,16 +6102,16 @@
         <v>99</v>
       </c>
       <c r="C314" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>84</v>
       </c>
@@ -6119,16 +6119,16 @@
         <v>99</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>84</v>
       </c>
@@ -6136,16 +6136,16 @@
         <v>99</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D316" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>84</v>
       </c>
@@ -6153,33 +6153,33 @@
         <v>99</v>
       </c>
       <c r="C317" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>84</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C318" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D318" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>84</v>
       </c>
@@ -6187,16 +6187,16 @@
         <v>100</v>
       </c>
       <c r="C319" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D319" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>84</v>
       </c>
@@ -6204,33 +6204,33 @@
         <v>100</v>
       </c>
       <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>84</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C321" t="s">
         <v>24</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>25</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>101</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C321" t="s">
-        <v>7</v>
-      </c>
-      <c r="D321" t="s">
-        <v>8</v>
-      </c>
       <c r="E321" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>101</v>
       </c>
@@ -6238,16 +6238,16 @@
         <v>102</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D322" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>101</v>
       </c>
@@ -6255,16 +6255,16 @@
         <v>102</v>
       </c>
       <c r="C323" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>101</v>
       </c>
@@ -6272,33 +6272,33 @@
         <v>102</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>101</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C325" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>101</v>
       </c>
@@ -6306,16 +6306,16 @@
         <v>103</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>101</v>
       </c>
@@ -6323,33 +6323,33 @@
         <v>103</v>
       </c>
       <c r="C327" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>101</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C328" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D328" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>101</v>
       </c>
@@ -6357,16 +6357,16 @@
         <v>104</v>
       </c>
       <c r="C329" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D329" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>101</v>
       </c>
@@ -6374,16 +6374,16 @@
         <v>104</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>101</v>
       </c>
@@ -6391,33 +6391,33 @@
         <v>104</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D331" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>101</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D332" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>101</v>
       </c>
@@ -6425,16 +6425,16 @@
         <v>105</v>
       </c>
       <c r="C333" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D333" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>101</v>
       </c>
@@ -6442,33 +6442,33 @@
         <v>105</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>101</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C335" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>101</v>
       </c>
@@ -6476,16 +6476,16 @@
         <v>106</v>
       </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>101</v>
       </c>
@@ -6493,16 +6493,16 @@
         <v>106</v>
       </c>
       <c r="C337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>101</v>
       </c>
@@ -6510,33 +6510,33 @@
         <v>106</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D338" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>101</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D339" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>101</v>
       </c>
@@ -6544,16 +6544,16 @@
         <v>107</v>
       </c>
       <c r="C340" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D340" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>101</v>
       </c>
@@ -6561,33 +6561,33 @@
         <v>107</v>
       </c>
       <c r="C341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>101</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C342" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D342" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>101</v>
       </c>
@@ -6595,16 +6595,16 @@
         <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D343" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>101</v>
       </c>
@@ -6612,16 +6612,16 @@
         <v>108</v>
       </c>
       <c r="C344" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D344" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>101</v>
       </c>
@@ -6629,33 +6629,33 @@
         <v>108</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D345" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>101</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>101</v>
       </c>
@@ -6663,16 +6663,16 @@
         <v>109</v>
       </c>
       <c r="C347" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D347" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>101</v>
       </c>
@@ -6680,33 +6680,33 @@
         <v>109</v>
       </c>
       <c r="C348" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D348" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>101</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D349" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>101</v>
       </c>
@@ -6714,16 +6714,16 @@
         <v>110</v>
       </c>
       <c r="C350" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>101</v>
       </c>
@@ -6731,16 +6731,16 @@
         <v>110</v>
       </c>
       <c r="C351" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>101</v>
       </c>
@@ -6748,16 +6748,16 @@
         <v>110</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D352" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>101</v>
       </c>
@@ -6765,33 +6765,33 @@
         <v>110</v>
       </c>
       <c r="C353" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>101</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C354" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>101</v>
       </c>
@@ -6799,16 +6799,16 @@
         <v>111</v>
       </c>
       <c r="C355" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D355" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>101</v>
       </c>
@@ -6816,16 +6816,16 @@
         <v>111</v>
       </c>
       <c r="C356" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>101</v>
       </c>
@@ -6833,33 +6833,33 @@
         <v>111</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D357" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>101</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>101</v>
       </c>
@@ -6867,16 +6867,16 @@
         <v>112</v>
       </c>
       <c r="C359" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D359" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>101</v>
       </c>
@@ -6884,16 +6884,16 @@
         <v>112</v>
       </c>
       <c r="C360" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D360" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>101</v>
       </c>
@@ -6901,16 +6901,16 @@
         <v>112</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D361" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>101</v>
       </c>
@@ -6918,33 +6918,33 @@
         <v>112</v>
       </c>
       <c r="C362" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>101</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C363" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D363" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -6952,16 +6952,16 @@
         <v>113</v>
       </c>
       <c r="C364" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -6969,16 +6969,16 @@
         <v>113</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D365" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -6986,33 +6986,33 @@
         <v>113</v>
       </c>
       <c r="C366" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>101</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C367" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D367" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -7020,16 +7020,16 @@
         <v>114</v>
       </c>
       <c r="C368" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -7037,16 +7037,16 @@
         <v>114</v>
       </c>
       <c r="C369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -7054,16 +7054,16 @@
         <v>114</v>
       </c>
       <c r="C370" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D370" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -7071,33 +7071,33 @@
         <v>114</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D371" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>101</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C372" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>101</v>
       </c>
@@ -7105,16 +7105,16 @@
         <v>115</v>
       </c>
       <c r="C373" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D373" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>101</v>
       </c>
@@ -7122,16 +7122,16 @@
         <v>115</v>
       </c>
       <c r="C374" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>101</v>
       </c>
@@ -7139,33 +7139,33 @@
         <v>115</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>101</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C376" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>101</v>
       </c>
@@ -7173,16 +7173,16 @@
         <v>116</v>
       </c>
       <c r="C377" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>101</v>
       </c>
@@ -7190,16 +7190,16 @@
         <v>116</v>
       </c>
       <c r="C378" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D378" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>101</v>
       </c>
@@ -7207,16 +7207,16 @@
         <v>116</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D379" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>101</v>
       </c>
@@ -7224,33 +7224,33 @@
         <v>116</v>
       </c>
       <c r="C380" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>101</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C381" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D381" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>101</v>
       </c>
@@ -7258,16 +7258,16 @@
         <v>117</v>
       </c>
       <c r="C382" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D382" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>101</v>
       </c>
@@ -7275,12 +7275,29 @@
         <v>117</v>
       </c>
       <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>101</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C384" t="s">
         <v>24</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D384" t="s">
         <v>25</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lapBkp\projects\mosip\test9\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulraj\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949EFC3-D1E1-42C2-A61D-DA59514D67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD22FDE-58C6-4034-A088-6B5156AA9C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="119">
   <si>
     <t>lang_code</t>
   </si>
@@ -465,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,19 +761,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.453125" style="1"/>
-    <col min="5" max="5" width="8.54296875" style="1"/>
+    <col min="2" max="2" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1215,24 +1215,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1240,16 +1240,16 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1257,16 +1257,16 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1274,33 +1274,33 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1308,16 +1308,16 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1325,33 +1325,33 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1359,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1376,16 +1376,16 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1393,16 +1393,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1410,33 +1410,33 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1444,16 +1444,16 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1461,16 +1461,16 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1478,33 +1478,33 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1512,16 +1512,16 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1529,16 +1529,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1546,16 +1546,16 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1563,33 +1563,33 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1614,16 +1614,16 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1631,33 +1631,33 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1665,16 +1665,16 @@
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1699,16 +1699,16 @@
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1716,33 +1716,33 @@
         <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1750,16 +1750,16 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1767,16 +1767,16 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1784,33 +1784,33 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1818,16 +1818,16 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1835,16 +1835,16 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1852,16 +1852,16 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1869,33 +1869,33 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1903,16 +1903,16 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1920,33 +1920,33 @@
         <v>32</v>
       </c>
       <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
         <v>24</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1954,16 +1954,16 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -1971,16 +1971,16 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1988,33 +1988,33 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2022,16 +2022,16 @@
         <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2039,33 +2039,33 @@
         <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2073,16 +2073,16 @@
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -2090,16 +2090,16 @@
         <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2107,33 +2107,33 @@
         <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -2141,16 +2141,16 @@
         <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -2158,33 +2158,33 @@
         <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -2192,16 +2192,16 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2209,16 +2209,16 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2226,33 +2226,33 @@
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -2260,16 +2260,16 @@
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -2277,33 +2277,33 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2311,16 +2311,16 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -2328,16 +2328,16 @@
         <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -2345,33 +2345,33 @@
         <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -2379,16 +2379,16 @@
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -2396,33 +2396,33 @@
         <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2430,16 +2430,16 @@
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2447,16 +2447,16 @@
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -2464,16 +2464,16 @@
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -2481,33 +2481,33 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2515,16 +2515,16 @@
         <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -2532,16 +2532,16 @@
         <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -2549,33 +2549,33 @@
         <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>33</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -2583,16 +2583,16 @@
         <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -2600,16 +2600,16 @@
         <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -2617,16 +2617,16 @@
         <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -2634,33 +2634,33 @@
         <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -2668,16 +2668,16 @@
         <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2685,16 +2685,16 @@
         <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -2702,33 +2702,33 @@
         <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -2736,16 +2736,16 @@
         <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -2753,16 +2753,16 @@
         <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -2770,16 +2770,16 @@
         <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -2787,33 +2787,33 @@
         <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -2821,16 +2821,16 @@
         <v>47</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -2838,16 +2838,16 @@
         <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -2855,33 +2855,33 @@
         <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -2889,16 +2889,16 @@
         <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -2906,16 +2906,16 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -2923,16 +2923,16 @@
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -2940,33 +2940,33 @@
         <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -2974,16 +2974,16 @@
         <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -2991,33 +2991,33 @@
         <v>49</v>
       </c>
       <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" t="s">
         <v>24</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>25</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
       <c r="E132" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -3025,16 +3025,16 @@
         <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -3042,16 +3042,16 @@
         <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -3059,33 +3059,33 @@
         <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>50</v>
       </c>
@@ -3093,16 +3093,16 @@
         <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -3110,33 +3110,33 @@
         <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>50</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -3144,16 +3144,16 @@
         <v>53</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>50</v>
       </c>
@@ -3161,16 +3161,16 @@
         <v>53</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -3178,33 +3178,33 @@
         <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -3212,16 +3212,16 @@
         <v>54</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -3229,33 +3229,33 @@
         <v>54</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>50</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -3263,16 +3263,16 @@
         <v>55</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>50</v>
       </c>
@@ -3280,16 +3280,16 @@
         <v>55</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>50</v>
       </c>
@@ -3297,33 +3297,33 @@
         <v>55</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>50</v>
       </c>
@@ -3331,16 +3331,16 @@
         <v>56</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>50</v>
       </c>
@@ -3348,33 +3348,33 @@
         <v>56</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>50</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>50</v>
       </c>
@@ -3382,16 +3382,16 @@
         <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>50</v>
       </c>
@@ -3399,16 +3399,16 @@
         <v>57</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>50</v>
       </c>
@@ -3416,33 +3416,33 @@
         <v>57</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>50</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>50</v>
       </c>
@@ -3450,16 +3450,16 @@
         <v>58</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>50</v>
       </c>
@@ -3467,33 +3467,33 @@
         <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>50</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>50</v>
       </c>
@@ -3501,16 +3501,16 @@
         <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>50</v>
       </c>
@@ -3518,16 +3518,16 @@
         <v>59</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -3535,16 +3535,16 @@
         <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -3552,33 +3552,33 @@
         <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>50</v>
       </c>
@@ -3586,16 +3586,16 @@
         <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>50</v>
       </c>
@@ -3603,16 +3603,16 @@
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>50</v>
       </c>
@@ -3620,33 +3620,33 @@
         <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>50</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -3654,16 +3654,16 @@
         <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -3671,16 +3671,16 @@
         <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>50</v>
       </c>
@@ -3688,16 +3688,16 @@
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>50</v>
       </c>
@@ -3705,33 +3705,33 @@
         <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>50</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -3739,16 +3739,16 @@
         <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>50</v>
       </c>
@@ -3756,16 +3756,16 @@
         <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>50</v>
       </c>
@@ -3773,33 +3773,33 @@
         <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>50</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>50</v>
       </c>
@@ -3807,16 +3807,16 @@
         <v>63</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>50</v>
       </c>
@@ -3824,16 +3824,16 @@
         <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>50</v>
       </c>
@@ -3841,16 +3841,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>50</v>
       </c>
@@ -3858,33 +3858,33 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>50</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>50</v>
       </c>
@@ -3892,16 +3892,16 @@
         <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>50</v>
       </c>
@@ -3909,16 +3909,16 @@
         <v>64</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>50</v>
       </c>
@@ -3926,33 +3926,33 @@
         <v>64</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>50</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>50</v>
       </c>
@@ -3960,16 +3960,16 @@
         <v>65</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -3977,16 +3977,16 @@
         <v>65</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>50</v>
       </c>
@@ -3994,16 +3994,16 @@
         <v>65</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>50</v>
       </c>
@@ -4011,33 +4011,33 @@
         <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>50</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -4045,16 +4045,16 @@
         <v>66</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>50</v>
       </c>
@@ -4062,33 +4062,33 @@
         <v>66</v>
       </c>
       <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
         <v>24</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>25</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>67</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" t="s">
-        <v>8</v>
-      </c>
       <c r="E195" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>67</v>
       </c>
@@ -4096,16 +4096,16 @@
         <v>68</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -4113,16 +4113,16 @@
         <v>68</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>67</v>
       </c>
@@ -4130,33 +4130,33 @@
         <v>68</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>67</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>67</v>
       </c>
@@ -4164,16 +4164,16 @@
         <v>69</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>67</v>
       </c>
@@ -4181,33 +4181,33 @@
         <v>69</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>67</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>67</v>
       </c>
@@ -4215,16 +4215,16 @@
         <v>70</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>67</v>
       </c>
@@ -4232,16 +4232,16 @@
         <v>70</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>67</v>
       </c>
@@ -4249,33 +4249,33 @@
         <v>70</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>67</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>67</v>
       </c>
@@ -4283,16 +4283,16 @@
         <v>71</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>67</v>
       </c>
@@ -4300,33 +4300,33 @@
         <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>67</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>67</v>
       </c>
@@ -4334,16 +4334,16 @@
         <v>72</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>67</v>
       </c>
@@ -4351,16 +4351,16 @@
         <v>72</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>67</v>
       </c>
@@ -4368,33 +4368,33 @@
         <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>67</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>67</v>
       </c>
@@ -4402,16 +4402,16 @@
         <v>73</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>67</v>
       </c>
@@ -4419,33 +4419,33 @@
         <v>73</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>67</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>67</v>
       </c>
@@ -4453,16 +4453,16 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>67</v>
       </c>
@@ -4470,16 +4470,16 @@
         <v>74</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>67</v>
       </c>
@@ -4487,33 +4487,33 @@
         <v>74</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>67</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>67</v>
       </c>
@@ -4521,16 +4521,16 @@
         <v>75</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>67</v>
       </c>
@@ -4538,33 +4538,33 @@
         <v>75</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>67</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>67</v>
       </c>
@@ -4572,16 +4572,16 @@
         <v>76</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>67</v>
       </c>
@@ -4589,16 +4589,16 @@
         <v>76</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>67</v>
       </c>
@@ -4606,16 +4606,16 @@
         <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>67</v>
       </c>
@@ -4623,33 +4623,33 @@
         <v>76</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>67</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>67</v>
       </c>
@@ -4657,16 +4657,16 @@
         <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>67</v>
       </c>
@@ -4674,16 +4674,16 @@
         <v>77</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>67</v>
       </c>
@@ -4691,33 +4691,33 @@
         <v>77</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>67</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>67</v>
       </c>
@@ -4725,16 +4725,16 @@
         <v>78</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>67</v>
       </c>
@@ -4742,16 +4742,16 @@
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>67</v>
       </c>
@@ -4759,16 +4759,16 @@
         <v>78</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>67</v>
       </c>
@@ -4776,33 +4776,33 @@
         <v>78</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>67</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>67</v>
       </c>
@@ -4810,16 +4810,16 @@
         <v>79</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>67</v>
       </c>
@@ -4827,16 +4827,16 @@
         <v>79</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>67</v>
       </c>
@@ -4844,33 +4844,33 @@
         <v>79</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>67</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>67</v>
       </c>
@@ -4878,16 +4878,16 @@
         <v>80</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>67</v>
       </c>
@@ -4895,16 +4895,16 @@
         <v>80</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>67</v>
       </c>
@@ -4912,16 +4912,16 @@
         <v>80</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>67</v>
       </c>
@@ -4929,33 +4929,33 @@
         <v>80</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>67</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>67</v>
       </c>
@@ -4963,16 +4963,16 @@
         <v>81</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>67</v>
       </c>
@@ -4980,16 +4980,16 @@
         <v>81</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>67</v>
       </c>
@@ -4997,33 +4997,33 @@
         <v>81</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>67</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>67</v>
       </c>
@@ -5031,16 +5031,16 @@
         <v>82</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>67</v>
       </c>
@@ -5048,16 +5048,16 @@
         <v>82</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>67</v>
       </c>
@@ -5065,16 +5065,16 @@
         <v>82</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>67</v>
       </c>
@@ -5082,33 +5082,33 @@
         <v>82</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>67</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>67</v>
       </c>
@@ -5116,16 +5116,16 @@
         <v>83</v>
       </c>
       <c r="C256" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>67</v>
       </c>
@@ -5133,33 +5133,33 @@
         <v>83</v>
       </c>
       <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258" t="s">
         <v>24</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>25</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>84</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C258" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258" t="s">
-        <v>8</v>
-      </c>
       <c r="E258" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>84</v>
       </c>
@@ -5167,16 +5167,16 @@
         <v>85</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -5184,16 +5184,16 @@
         <v>85</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>84</v>
       </c>
@@ -5201,33 +5201,33 @@
         <v>85</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>84</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D262" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>84</v>
       </c>
@@ -5235,16 +5235,16 @@
         <v>86</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>84</v>
       </c>
@@ -5252,33 +5252,33 @@
         <v>86</v>
       </c>
       <c r="C264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>84</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -5286,16 +5286,16 @@
         <v>87</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>84</v>
       </c>
@@ -5303,16 +5303,16 @@
         <v>87</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>84</v>
       </c>
@@ -5320,33 +5320,33 @@
         <v>87</v>
       </c>
       <c r="C268" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>84</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>84</v>
       </c>
@@ -5354,16 +5354,16 @@
         <v>88</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -5371,33 +5371,33 @@
         <v>88</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>84</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>84</v>
       </c>
@@ -5405,16 +5405,16 @@
         <v>89</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>84</v>
       </c>
@@ -5422,16 +5422,16 @@
         <v>89</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>84</v>
       </c>
@@ -5439,33 +5439,33 @@
         <v>89</v>
       </c>
       <c r="C275" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D275" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>84</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>84</v>
       </c>
@@ -5473,16 +5473,16 @@
         <v>90</v>
       </c>
       <c r="C277" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>84</v>
       </c>
@@ -5490,33 +5490,33 @@
         <v>90</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D279" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -5524,16 +5524,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>84</v>
       </c>
@@ -5541,16 +5541,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
@@ -5558,33 +5558,33 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>84</v>
       </c>
@@ -5592,16 +5592,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>84</v>
       </c>
@@ -5609,33 +5609,33 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>84</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>84</v>
       </c>
@@ -5643,16 +5643,16 @@
         <v>93</v>
       </c>
       <c r="C287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -5660,16 +5660,16 @@
         <v>93</v>
       </c>
       <c r="C288" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -5677,16 +5677,16 @@
         <v>93</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>84</v>
       </c>
@@ -5694,33 +5694,33 @@
         <v>93</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>84</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C291" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>84</v>
       </c>
@@ -5728,16 +5728,16 @@
         <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>84</v>
       </c>
@@ -5745,16 +5745,16 @@
         <v>94</v>
       </c>
       <c r="C293" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>84</v>
       </c>
@@ -5762,33 +5762,33 @@
         <v>94</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>84</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>84</v>
       </c>
@@ -5796,16 +5796,16 @@
         <v>95</v>
       </c>
       <c r="C296" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>84</v>
       </c>
@@ -5813,16 +5813,16 @@
         <v>95</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>84</v>
       </c>
@@ -5830,16 +5830,16 @@
         <v>95</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -5847,33 +5847,33 @@
         <v>95</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D299" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>84</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D300" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>84</v>
       </c>
@@ -5881,16 +5881,16 @@
         <v>96</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D301" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>84</v>
       </c>
@@ -5898,16 +5898,16 @@
         <v>96</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D302" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>84</v>
       </c>
@@ -5915,33 +5915,33 @@
         <v>96</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>84</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>84</v>
       </c>
@@ -5949,16 +5949,16 @@
         <v>97</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D305" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -5966,16 +5966,16 @@
         <v>97</v>
       </c>
       <c r="C306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>84</v>
       </c>
@@ -5983,16 +5983,16 @@
         <v>97</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>84</v>
       </c>
@@ -6000,33 +6000,33 @@
         <v>97</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>84</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>84</v>
       </c>
@@ -6034,16 +6034,16 @@
         <v>98</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>84</v>
       </c>
@@ -6051,16 +6051,16 @@
         <v>98</v>
       </c>
       <c r="C311" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>84</v>
       </c>
@@ -6068,33 +6068,33 @@
         <v>98</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>84</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -6102,16 +6102,16 @@
         <v>99</v>
       </c>
       <c r="C314" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>84</v>
       </c>
@@ -6119,16 +6119,16 @@
         <v>99</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>84</v>
       </c>
@@ -6136,16 +6136,16 @@
         <v>99</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D316" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>84</v>
       </c>
@@ -6153,33 +6153,33 @@
         <v>99</v>
       </c>
       <c r="C317" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>84</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C318" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D318" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>84</v>
       </c>
@@ -6187,16 +6187,16 @@
         <v>100</v>
       </c>
       <c r="C319" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D319" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>84</v>
       </c>
@@ -6204,33 +6204,33 @@
         <v>100</v>
       </c>
       <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>84</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C321" t="s">
         <v>24</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>25</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>101</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C321" t="s">
-        <v>7</v>
-      </c>
-      <c r="D321" t="s">
-        <v>8</v>
-      </c>
       <c r="E321" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>101</v>
       </c>
@@ -6238,16 +6238,16 @@
         <v>102</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D322" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>101</v>
       </c>
@@ -6255,16 +6255,16 @@
         <v>102</v>
       </c>
       <c r="C323" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>101</v>
       </c>
@@ -6272,33 +6272,33 @@
         <v>102</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>101</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C325" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>101</v>
       </c>
@@ -6306,16 +6306,16 @@
         <v>103</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>101</v>
       </c>
@@ -6323,33 +6323,33 @@
         <v>103</v>
       </c>
       <c r="C327" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>101</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C328" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D328" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>101</v>
       </c>
@@ -6357,16 +6357,16 @@
         <v>104</v>
       </c>
       <c r="C329" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D329" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>101</v>
       </c>
@@ -6374,16 +6374,16 @@
         <v>104</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>101</v>
       </c>
@@ -6391,33 +6391,33 @@
         <v>104</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D331" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>101</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D332" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>101</v>
       </c>
@@ -6425,16 +6425,16 @@
         <v>105</v>
       </c>
       <c r="C333" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D333" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>101</v>
       </c>
@@ -6442,33 +6442,33 @@
         <v>105</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>101</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C335" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>101</v>
       </c>
@@ -6476,16 +6476,16 @@
         <v>106</v>
       </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>101</v>
       </c>
@@ -6493,16 +6493,16 @@
         <v>106</v>
       </c>
       <c r="C337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>101</v>
       </c>
@@ -6510,33 +6510,33 @@
         <v>106</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D338" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>101</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D339" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>101</v>
       </c>
@@ -6544,16 +6544,16 @@
         <v>107</v>
       </c>
       <c r="C340" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D340" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>101</v>
       </c>
@@ -6561,33 +6561,33 @@
         <v>107</v>
       </c>
       <c r="C341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>101</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C342" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D342" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>101</v>
       </c>
@@ -6595,16 +6595,16 @@
         <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D343" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>101</v>
       </c>
@@ -6612,16 +6612,16 @@
         <v>108</v>
       </c>
       <c r="C344" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D344" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>101</v>
       </c>
@@ -6629,33 +6629,33 @@
         <v>108</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D345" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>101</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>101</v>
       </c>
@@ -6663,16 +6663,16 @@
         <v>109</v>
       </c>
       <c r="C347" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D347" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>101</v>
       </c>
@@ -6680,33 +6680,33 @@
         <v>109</v>
       </c>
       <c r="C348" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D348" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>101</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D349" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>101</v>
       </c>
@@ -6714,16 +6714,16 @@
         <v>110</v>
       </c>
       <c r="C350" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>101</v>
       </c>
@@ -6731,16 +6731,16 @@
         <v>110</v>
       </c>
       <c r="C351" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>101</v>
       </c>
@@ -6748,16 +6748,16 @@
         <v>110</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D352" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>101</v>
       </c>
@@ -6765,33 +6765,33 @@
         <v>110</v>
       </c>
       <c r="C353" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>101</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C354" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>101</v>
       </c>
@@ -6799,16 +6799,16 @@
         <v>111</v>
       </c>
       <c r="C355" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D355" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>101</v>
       </c>
@@ -6816,16 +6816,16 @@
         <v>111</v>
       </c>
       <c r="C356" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>101</v>
       </c>
@@ -6833,33 +6833,33 @@
         <v>111</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D357" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>101</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>101</v>
       </c>
@@ -6867,16 +6867,16 @@
         <v>112</v>
       </c>
       <c r="C359" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D359" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>101</v>
       </c>
@@ -6884,16 +6884,16 @@
         <v>112</v>
       </c>
       <c r="C360" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D360" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>101</v>
       </c>
@@ -6901,16 +6901,16 @@
         <v>112</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D361" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>101</v>
       </c>
@@ -6918,33 +6918,33 @@
         <v>112</v>
       </c>
       <c r="C362" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>101</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C363" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D363" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -6952,16 +6952,16 @@
         <v>113</v>
       </c>
       <c r="C364" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -6969,16 +6969,16 @@
         <v>113</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D365" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -6986,33 +6986,33 @@
         <v>113</v>
       </c>
       <c r="C366" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>101</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C367" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D367" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -7020,16 +7020,16 @@
         <v>114</v>
       </c>
       <c r="C368" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -7037,16 +7037,16 @@
         <v>114</v>
       </c>
       <c r="C369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -7054,16 +7054,16 @@
         <v>114</v>
       </c>
       <c r="C370" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D370" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -7071,33 +7071,33 @@
         <v>114</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D371" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>101</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C372" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>101</v>
       </c>
@@ -7105,16 +7105,16 @@
         <v>115</v>
       </c>
       <c r="C373" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D373" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>101</v>
       </c>
@@ -7122,16 +7122,16 @@
         <v>115</v>
       </c>
       <c r="C374" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>101</v>
       </c>
@@ -7139,33 +7139,33 @@
         <v>115</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>101</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C376" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>101</v>
       </c>
@@ -7173,16 +7173,16 @@
         <v>116</v>
       </c>
       <c r="C377" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>101</v>
       </c>
@@ -7190,16 +7190,16 @@
         <v>116</v>
       </c>
       <c r="C378" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D378" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>101</v>
       </c>
@@ -7207,16 +7207,16 @@
         <v>116</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D379" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>101</v>
       </c>
@@ -7224,33 +7224,33 @@
         <v>116</v>
       </c>
       <c r="C380" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>101</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C381" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D381" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>101</v>
       </c>
@@ -7258,16 +7258,16 @@
         <v>117</v>
       </c>
       <c r="C382" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D382" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>101</v>
       </c>
@@ -7275,12 +7275,29 @@
         <v>117</v>
       </c>
       <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>101</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C384" t="s">
         <v>24</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D384" t="s">
         <v>25</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lapBkp\projects\mosip\test9\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulraj\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949EFC3-D1E1-42C2-A61D-DA59514D67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F8C14-C5CA-4283-B595-0D996F70F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="119">
   <si>
     <t>lang_code</t>
   </si>
@@ -465,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,19 +761,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.453125" style="1"/>
-    <col min="5" max="5" width="8.54296875" style="1"/>
+    <col min="2" max="2" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1215,24 +1215,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1240,16 +1240,16 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1257,16 +1257,16 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1274,33 +1274,33 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1308,16 +1308,16 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1325,33 +1325,33 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1359,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1376,16 +1376,16 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1393,16 +1393,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1410,33 +1410,33 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1444,16 +1444,16 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1461,16 +1461,16 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1478,33 +1478,33 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1512,16 +1512,16 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1529,16 +1529,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1546,16 +1546,16 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1563,33 +1563,33 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1614,16 +1614,16 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1631,33 +1631,33 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1665,16 +1665,16 @@
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1699,16 +1699,16 @@
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1716,33 +1716,33 @@
         <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1750,16 +1750,16 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1767,16 +1767,16 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1784,33 +1784,33 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1818,16 +1818,16 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1835,16 +1835,16 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1852,16 +1852,16 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1869,33 +1869,33 @@
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1903,16 +1903,16 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1920,33 +1920,33 @@
         <v>32</v>
       </c>
       <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
         <v>24</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1954,16 +1954,16 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -1971,16 +1971,16 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1988,33 +1988,33 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2022,16 +2022,16 @@
         <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2039,33 +2039,33 @@
         <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2073,16 +2073,16 @@
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -2090,16 +2090,16 @@
         <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2107,33 +2107,33 @@
         <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -2141,16 +2141,16 @@
         <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -2158,33 +2158,33 @@
         <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -2192,16 +2192,16 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2209,16 +2209,16 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2226,33 +2226,33 @@
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -2260,16 +2260,16 @@
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -2277,33 +2277,33 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2311,16 +2311,16 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -2328,16 +2328,16 @@
         <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -2345,33 +2345,33 @@
         <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -2379,16 +2379,16 @@
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -2396,33 +2396,33 @@
         <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2430,16 +2430,16 @@
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2447,16 +2447,16 @@
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -2464,16 +2464,16 @@
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -2481,33 +2481,33 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2515,16 +2515,16 @@
         <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -2532,16 +2532,16 @@
         <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -2549,33 +2549,33 @@
         <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>33</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -2583,16 +2583,16 @@
         <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -2600,16 +2600,16 @@
         <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -2617,16 +2617,16 @@
         <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -2634,33 +2634,33 @@
         <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -2668,16 +2668,16 @@
         <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2685,16 +2685,16 @@
         <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -2702,33 +2702,33 @@
         <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -2736,16 +2736,16 @@
         <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -2753,16 +2753,16 @@
         <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -2770,16 +2770,16 @@
         <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -2787,33 +2787,33 @@
         <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -2821,16 +2821,16 @@
         <v>47</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -2838,16 +2838,16 @@
         <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -2855,33 +2855,33 @@
         <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -2889,16 +2889,16 @@
         <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -2906,16 +2906,16 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -2923,16 +2923,16 @@
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -2940,33 +2940,33 @@
         <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -2974,16 +2974,16 @@
         <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -2991,33 +2991,33 @@
         <v>49</v>
       </c>
       <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" t="s">
         <v>24</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>25</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
       <c r="E132" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -3025,16 +3025,16 @@
         <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -3042,16 +3042,16 @@
         <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -3059,33 +3059,33 @@
         <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>50</v>
       </c>
@@ -3093,16 +3093,16 @@
         <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -3110,33 +3110,33 @@
         <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>50</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -3144,16 +3144,16 @@
         <v>53</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>50</v>
       </c>
@@ -3161,16 +3161,16 @@
         <v>53</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -3178,33 +3178,33 @@
         <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -3212,16 +3212,16 @@
         <v>54</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -3229,33 +3229,33 @@
         <v>54</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>50</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -3263,16 +3263,16 @@
         <v>55</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>50</v>
       </c>
@@ -3280,16 +3280,16 @@
         <v>55</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>50</v>
       </c>
@@ -3297,33 +3297,33 @@
         <v>55</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>50</v>
       </c>
@@ -3331,16 +3331,16 @@
         <v>56</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>50</v>
       </c>
@@ -3348,33 +3348,33 @@
         <v>56</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>50</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>50</v>
       </c>
@@ -3382,16 +3382,16 @@
         <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>50</v>
       </c>
@@ -3399,16 +3399,16 @@
         <v>57</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>50</v>
       </c>
@@ -3416,33 +3416,33 @@
         <v>57</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>50</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>50</v>
       </c>
@@ -3450,16 +3450,16 @@
         <v>58</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>50</v>
       </c>
@@ -3467,33 +3467,33 @@
         <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>50</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>50</v>
       </c>
@@ -3501,16 +3501,16 @@
         <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>50</v>
       </c>
@@ -3518,16 +3518,16 @@
         <v>59</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -3535,16 +3535,16 @@
         <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -3552,33 +3552,33 @@
         <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>50</v>
       </c>
@@ -3586,16 +3586,16 @@
         <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>50</v>
       </c>
@@ -3603,16 +3603,16 @@
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>50</v>
       </c>
@@ -3620,33 +3620,33 @@
         <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>50</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -3654,16 +3654,16 @@
         <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -3671,16 +3671,16 @@
         <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>50</v>
       </c>
@@ -3688,16 +3688,16 @@
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>50</v>
       </c>
@@ -3705,33 +3705,33 @@
         <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>50</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -3739,16 +3739,16 @@
         <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>50</v>
       </c>
@@ -3756,16 +3756,16 @@
         <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>50</v>
       </c>
@@ -3773,33 +3773,33 @@
         <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>50</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>50</v>
       </c>
@@ -3807,16 +3807,16 @@
         <v>63</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>50</v>
       </c>
@@ -3824,16 +3824,16 @@
         <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>50</v>
       </c>
@@ -3841,16 +3841,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>50</v>
       </c>
@@ -3858,33 +3858,33 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>50</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>50</v>
       </c>
@@ -3892,16 +3892,16 @@
         <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>50</v>
       </c>
@@ -3909,16 +3909,16 @@
         <v>64</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>50</v>
       </c>
@@ -3926,33 +3926,33 @@
         <v>64</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>50</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>50</v>
       </c>
@@ -3960,16 +3960,16 @@
         <v>65</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -3977,16 +3977,16 @@
         <v>65</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>50</v>
       </c>
@@ -3994,16 +3994,16 @@
         <v>65</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>50</v>
       </c>
@@ -4011,33 +4011,33 @@
         <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>50</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -4045,16 +4045,16 @@
         <v>66</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>50</v>
       </c>
@@ -4062,33 +4062,33 @@
         <v>66</v>
       </c>
       <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
         <v>24</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>25</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>67</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" t="s">
-        <v>8</v>
-      </c>
       <c r="E195" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>67</v>
       </c>
@@ -4096,16 +4096,16 @@
         <v>68</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -4113,16 +4113,16 @@
         <v>68</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>67</v>
       </c>
@@ -4130,33 +4130,33 @@
         <v>68</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>67</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>67</v>
       </c>
@@ -4164,16 +4164,16 @@
         <v>69</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>67</v>
       </c>
@@ -4181,33 +4181,33 @@
         <v>69</v>
       </c>
       <c r="C201" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>67</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>67</v>
       </c>
@@ -4215,16 +4215,16 @@
         <v>70</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>67</v>
       </c>
@@ -4232,16 +4232,16 @@
         <v>70</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>67</v>
       </c>
@@ -4249,33 +4249,33 @@
         <v>70</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>67</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>67</v>
       </c>
@@ -4283,16 +4283,16 @@
         <v>71</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>67</v>
       </c>
@@ -4300,33 +4300,33 @@
         <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>67</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>67</v>
       </c>
@@ -4334,16 +4334,16 @@
         <v>72</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>67</v>
       </c>
@@ -4351,16 +4351,16 @@
         <v>72</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>67</v>
       </c>
@@ -4368,33 +4368,33 @@
         <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>67</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>67</v>
       </c>
@@ -4402,16 +4402,16 @@
         <v>73</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>67</v>
       </c>
@@ -4419,33 +4419,33 @@
         <v>73</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>67</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>67</v>
       </c>
@@ -4453,16 +4453,16 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>67</v>
       </c>
@@ -4470,16 +4470,16 @@
         <v>74</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>67</v>
       </c>
@@ -4487,33 +4487,33 @@
         <v>74</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>67</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>67</v>
       </c>
@@ -4521,16 +4521,16 @@
         <v>75</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>67</v>
       </c>
@@ -4538,33 +4538,33 @@
         <v>75</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>67</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>67</v>
       </c>
@@ -4572,16 +4572,16 @@
         <v>76</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>67</v>
       </c>
@@ -4589,16 +4589,16 @@
         <v>76</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>67</v>
       </c>
@@ -4606,16 +4606,16 @@
         <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>67</v>
       </c>
@@ -4623,33 +4623,33 @@
         <v>76</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>67</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>67</v>
       </c>
@@ -4657,16 +4657,16 @@
         <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>67</v>
       </c>
@@ -4674,16 +4674,16 @@
         <v>77</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>67</v>
       </c>
@@ -4691,33 +4691,33 @@
         <v>77</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>67</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>67</v>
       </c>
@@ -4725,16 +4725,16 @@
         <v>78</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>67</v>
       </c>
@@ -4742,16 +4742,16 @@
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>67</v>
       </c>
@@ -4759,16 +4759,16 @@
         <v>78</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>67</v>
       </c>
@@ -4776,33 +4776,33 @@
         <v>78</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>67</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>67</v>
       </c>
@@ -4810,16 +4810,16 @@
         <v>79</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>67</v>
       </c>
@@ -4827,16 +4827,16 @@
         <v>79</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>67</v>
       </c>
@@ -4844,33 +4844,33 @@
         <v>79</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>67</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>67</v>
       </c>
@@ -4878,16 +4878,16 @@
         <v>80</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>67</v>
       </c>
@@ -4895,16 +4895,16 @@
         <v>80</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>67</v>
       </c>
@@ -4912,16 +4912,16 @@
         <v>80</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>67</v>
       </c>
@@ -4929,33 +4929,33 @@
         <v>80</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>67</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>67</v>
       </c>
@@ -4963,16 +4963,16 @@
         <v>81</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>67</v>
       </c>
@@ -4980,16 +4980,16 @@
         <v>81</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>67</v>
       </c>
@@ -4997,33 +4997,33 @@
         <v>81</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>67</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>67</v>
       </c>
@@ -5031,16 +5031,16 @@
         <v>82</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>67</v>
       </c>
@@ -5048,16 +5048,16 @@
         <v>82</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>67</v>
       </c>
@@ -5065,16 +5065,16 @@
         <v>82</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>67</v>
       </c>
@@ -5082,33 +5082,33 @@
         <v>82</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>67</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>67</v>
       </c>
@@ -5116,16 +5116,16 @@
         <v>83</v>
       </c>
       <c r="C256" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>67</v>
       </c>
@@ -5133,33 +5133,33 @@
         <v>83</v>
       </c>
       <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258" t="s">
         <v>24</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>25</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>84</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C258" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258" t="s">
-        <v>8</v>
-      </c>
       <c r="E258" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>84</v>
       </c>
@@ -5167,16 +5167,16 @@
         <v>85</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -5184,16 +5184,16 @@
         <v>85</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>84</v>
       </c>
@@ -5201,33 +5201,33 @@
         <v>85</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>84</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D262" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>84</v>
       </c>
@@ -5235,16 +5235,16 @@
         <v>86</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>84</v>
       </c>
@@ -5252,33 +5252,33 @@
         <v>86</v>
       </c>
       <c r="C264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>84</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -5286,16 +5286,16 @@
         <v>87</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>84</v>
       </c>
@@ -5303,16 +5303,16 @@
         <v>87</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>84</v>
       </c>
@@ -5320,33 +5320,33 @@
         <v>87</v>
       </c>
       <c r="C268" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>84</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>84</v>
       </c>
@@ -5354,16 +5354,16 @@
         <v>88</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>84</v>
       </c>
@@ -5371,33 +5371,33 @@
         <v>88</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>84</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>84</v>
       </c>
@@ -5405,16 +5405,16 @@
         <v>89</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>84</v>
       </c>
@@ -5422,16 +5422,16 @@
         <v>89</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>84</v>
       </c>
@@ -5439,33 +5439,33 @@
         <v>89</v>
       </c>
       <c r="C275" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D275" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>84</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>84</v>
       </c>
@@ -5473,16 +5473,16 @@
         <v>90</v>
       </c>
       <c r="C277" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>84</v>
       </c>
@@ -5490,33 +5490,33 @@
         <v>90</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D279" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -5524,16 +5524,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>84</v>
       </c>
@@ -5541,16 +5541,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
@@ -5558,33 +5558,33 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>84</v>
       </c>
@@ -5592,16 +5592,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>84</v>
       </c>
@@ -5609,33 +5609,33 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>84</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>84</v>
       </c>
@@ -5643,16 +5643,16 @@
         <v>93</v>
       </c>
       <c r="C287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -5660,16 +5660,16 @@
         <v>93</v>
       </c>
       <c r="C288" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -5677,16 +5677,16 @@
         <v>93</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>84</v>
       </c>
@@ -5694,33 +5694,33 @@
         <v>93</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>84</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C291" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>84</v>
       </c>
@@ -5728,16 +5728,16 @@
         <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>84</v>
       </c>
@@ -5745,16 +5745,16 @@
         <v>94</v>
       </c>
       <c r="C293" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>84</v>
       </c>
@@ -5762,33 +5762,33 @@
         <v>94</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>84</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>84</v>
       </c>
@@ -5796,16 +5796,16 @@
         <v>95</v>
       </c>
       <c r="C296" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>84</v>
       </c>
@@ -5813,16 +5813,16 @@
         <v>95</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>84</v>
       </c>
@@ -5830,16 +5830,16 @@
         <v>95</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -5847,33 +5847,33 @@
         <v>95</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D299" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>84</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D300" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>84</v>
       </c>
@@ -5881,16 +5881,16 @@
         <v>96</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D301" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>84</v>
       </c>
@@ -5898,16 +5898,16 @@
         <v>96</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D302" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>84</v>
       </c>
@@ -5915,33 +5915,33 @@
         <v>96</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>84</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>84</v>
       </c>
@@ -5949,16 +5949,16 @@
         <v>97</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D305" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -5966,16 +5966,16 @@
         <v>97</v>
       </c>
       <c r="C306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>84</v>
       </c>
@@ -5983,16 +5983,16 @@
         <v>97</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>84</v>
       </c>
@@ -6000,33 +6000,33 @@
         <v>97</v>
       </c>
       <c r="C308" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>84</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>84</v>
       </c>
@@ -6034,16 +6034,16 @@
         <v>98</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>84</v>
       </c>
@@ -6051,16 +6051,16 @@
         <v>98</v>
       </c>
       <c r="C311" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>84</v>
       </c>
@@ -6068,33 +6068,33 @@
         <v>98</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>84</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -6102,16 +6102,16 @@
         <v>99</v>
       </c>
       <c r="C314" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>84</v>
       </c>
@@ -6119,16 +6119,16 @@
         <v>99</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>84</v>
       </c>
@@ -6136,16 +6136,16 @@
         <v>99</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D316" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>84</v>
       </c>
@@ -6153,33 +6153,33 @@
         <v>99</v>
       </c>
       <c r="C317" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>84</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C318" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D318" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>84</v>
       </c>
@@ -6187,16 +6187,16 @@
         <v>100</v>
       </c>
       <c r="C319" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D319" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>84</v>
       </c>
@@ -6204,33 +6204,33 @@
         <v>100</v>
       </c>
       <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>84</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C321" t="s">
         <v>24</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>25</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>101</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C321" t="s">
-        <v>7</v>
-      </c>
-      <c r="D321" t="s">
-        <v>8</v>
-      </c>
       <c r="E321" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>101</v>
       </c>
@@ -6238,16 +6238,16 @@
         <v>102</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D322" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>101</v>
       </c>
@@ -6255,16 +6255,16 @@
         <v>102</v>
       </c>
       <c r="C323" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>101</v>
       </c>
@@ -6272,33 +6272,33 @@
         <v>102</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>101</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C325" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>101</v>
       </c>
@@ -6306,16 +6306,16 @@
         <v>103</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>101</v>
       </c>
@@ -6323,33 +6323,33 @@
         <v>103</v>
       </c>
       <c r="C327" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>101</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C328" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D328" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>101</v>
       </c>
@@ -6357,16 +6357,16 @@
         <v>104</v>
       </c>
       <c r="C329" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D329" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>101</v>
       </c>
@@ -6374,16 +6374,16 @@
         <v>104</v>
       </c>
       <c r="C330" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>101</v>
       </c>
@@ -6391,33 +6391,33 @@
         <v>104</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D331" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>101</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D332" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>101</v>
       </c>
@@ -6425,16 +6425,16 @@
         <v>105</v>
       </c>
       <c r="C333" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D333" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>101</v>
       </c>
@@ -6442,33 +6442,33 @@
         <v>105</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>101</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C335" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>101</v>
       </c>
@@ -6476,16 +6476,16 @@
         <v>106</v>
       </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>101</v>
       </c>
@@ -6493,16 +6493,16 @@
         <v>106</v>
       </c>
       <c r="C337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>101</v>
       </c>
@@ -6510,33 +6510,33 @@
         <v>106</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D338" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>101</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D339" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>101</v>
       </c>
@@ -6544,16 +6544,16 @@
         <v>107</v>
       </c>
       <c r="C340" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D340" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>101</v>
       </c>
@@ -6561,33 +6561,33 @@
         <v>107</v>
       </c>
       <c r="C341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>101</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C342" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D342" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>101</v>
       </c>
@@ -6595,16 +6595,16 @@
         <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D343" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>101</v>
       </c>
@@ -6612,16 +6612,16 @@
         <v>108</v>
       </c>
       <c r="C344" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D344" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>101</v>
       </c>
@@ -6629,33 +6629,33 @@
         <v>108</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D345" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>101</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>101</v>
       </c>
@@ -6663,16 +6663,16 @@
         <v>109</v>
       </c>
       <c r="C347" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D347" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>101</v>
       </c>
@@ -6680,33 +6680,33 @@
         <v>109</v>
       </c>
       <c r="C348" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D348" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>101</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D349" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>101</v>
       </c>
@@ -6714,16 +6714,16 @@
         <v>110</v>
       </c>
       <c r="C350" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>101</v>
       </c>
@@ -6731,16 +6731,16 @@
         <v>110</v>
       </c>
       <c r="C351" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>101</v>
       </c>
@@ -6748,16 +6748,16 @@
         <v>110</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D352" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>101</v>
       </c>
@@ -6765,33 +6765,33 @@
         <v>110</v>
       </c>
       <c r="C353" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>101</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C354" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>101</v>
       </c>
@@ -6799,16 +6799,16 @@
         <v>111</v>
       </c>
       <c r="C355" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D355" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>101</v>
       </c>
@@ -6816,16 +6816,16 @@
         <v>111</v>
       </c>
       <c r="C356" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>101</v>
       </c>
@@ -6833,33 +6833,33 @@
         <v>111</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D357" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>101</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>101</v>
       </c>
@@ -6867,16 +6867,16 @@
         <v>112</v>
       </c>
       <c r="C359" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D359" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>101</v>
       </c>
@@ -6884,16 +6884,16 @@
         <v>112</v>
       </c>
       <c r="C360" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D360" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>101</v>
       </c>
@@ -6901,16 +6901,16 @@
         <v>112</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D361" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>101</v>
       </c>
@@ -6918,33 +6918,33 @@
         <v>112</v>
       </c>
       <c r="C362" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>101</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C363" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D363" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>101</v>
       </c>
@@ -6952,16 +6952,16 @@
         <v>113</v>
       </c>
       <c r="C364" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>101</v>
       </c>
@@ -6969,16 +6969,16 @@
         <v>113</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D365" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>101</v>
       </c>
@@ -6986,33 +6986,33 @@
         <v>113</v>
       </c>
       <c r="C366" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>101</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C367" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D367" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>101</v>
       </c>
@@ -7020,16 +7020,16 @@
         <v>114</v>
       </c>
       <c r="C368" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>101</v>
       </c>
@@ -7037,16 +7037,16 @@
         <v>114</v>
       </c>
       <c r="C369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>101</v>
       </c>
@@ -7054,16 +7054,16 @@
         <v>114</v>
       </c>
       <c r="C370" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D370" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>101</v>
       </c>
@@ -7071,33 +7071,33 @@
         <v>114</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D371" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>101</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C372" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>101</v>
       </c>
@@ -7105,16 +7105,16 @@
         <v>115</v>
       </c>
       <c r="C373" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D373" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>101</v>
       </c>
@@ -7122,16 +7122,16 @@
         <v>115</v>
       </c>
       <c r="C374" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>101</v>
       </c>
@@ -7139,33 +7139,33 @@
         <v>115</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>101</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C376" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>101</v>
       </c>
@@ -7173,16 +7173,16 @@
         <v>116</v>
       </c>
       <c r="C377" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>101</v>
       </c>
@@ -7190,16 +7190,16 @@
         <v>116</v>
       </c>
       <c r="C378" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D378" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>101</v>
       </c>
@@ -7207,16 +7207,16 @@
         <v>116</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D379" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>101</v>
       </c>
@@ -7224,33 +7224,33 @@
         <v>116</v>
       </c>
       <c r="C380" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>101</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C381" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D381" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>101</v>
       </c>
@@ -7258,16 +7258,16 @@
         <v>117</v>
       </c>
       <c r="C382" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D382" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>101</v>
       </c>
@@ -7275,12 +7275,29 @@
         <v>117</v>
       </c>
       <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>101</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C384" t="s">
         <v>24</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D384" t="s">
         <v>25</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>9</v>
       </c>
     </row>
